--- a/config_Release/act_ty_collect_words_config.xlsx
+++ b/config_Release/act_ty_collect_words_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -40,27 +40,18 @@
     <t>collect_config|对应的工作簿名</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_free_001</t>
-  </si>
-  <si>
     <t>gift_config1</t>
   </si>
   <si>
     <t>collect_config1</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
-  </si>
-  <si>
     <t>gift_config2</t>
   </si>
   <si>
     <t>collect_config2</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
-  </si>
-  <si>
     <t>gift_config3</t>
   </si>
   <si>
@@ -90,6 +81,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,6 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,6 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,6 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,6 +158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,6 +201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,6 +223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,6 +319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -322,6 +330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -340,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -350,6 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,6 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,6 +398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,6 +409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,6 +428,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,6 +439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,6 +455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,6 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,6 +493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,6 +504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,6 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,6 +531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,6 +542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,6 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -559,6 +586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,6 +602,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -584,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,6 +651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,6 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -654,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -664,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -674,6 +711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,6 +727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -699,6 +738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,6 +749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,6 +795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -774,6 +817,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -798,6 +842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,6 +853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,6 +864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,6 +877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -840,6 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -855,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,6 +915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,6 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -890,6 +942,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -900,6 +953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -910,6 +964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,6 +980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -935,6 +991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,6 +1002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,6 +1018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,6 +1029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -980,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,6 +1059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,11 +1081,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>y",</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>actp_buy_gift_bag_class_fclb_free_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,6 +1130,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1048,11 +1138,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1185,7 +1277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,7 +1312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1432,7 +1524,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,14 +1563,14 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1497,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1522,13 +1614,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1995,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C2 C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2014,22 +2106,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2046,19 +2138,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
-        <v>1611014400</v>
+        <v>1613433600</v>
       </c>
       <c r="F2" s="3">
-        <v>1611590399</v>
+        <v>1614009599</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2573,28 +2665,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2612,25 +2704,25 @@
         <v>10437</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2648,25 +2740,25 @@
         <v>10438</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2684,25 +2776,25 @@
         <v>10439</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2720,25 +2812,25 @@
         <v>10440</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2864,7 +2956,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3193,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3214,28 +3306,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3253,25 +3345,25 @@
         <v>10441</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3289,25 +3381,25 @@
         <v>10442</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3325,25 +3417,25 @@
         <v>10443</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3361,25 +3453,25 @@
         <v>10444</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3505,7 +3597,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3854,28 +3946,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3893,25 +3985,25 @@
         <v>10445</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3929,25 +4021,25 @@
         <v>10446</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3965,25 +4057,25 @@
         <v>10447</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4001,25 +4093,25 @@
         <v>10448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>498</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4145,7 +4237,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4473,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4494,31 +4586,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4535,31 +4627,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4576,31 +4668,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4617,31 +4709,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5167,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5188,31 +5280,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5229,31 +5321,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5270,31 +5362,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5311,31 +5403,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5861,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5882,31 +5974,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5923,31 +6015,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5964,31 +6056,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6005,31 +6097,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
